--- a/C1300-8T-E-2G_IV.xlsx
+++ b/C1300-8T-E-2G_IV.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\spec1806\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D0C209-F42E-493C-B4DF-787D049650B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76697A0-FC5B-471A-AB3F-F629FF82172F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{47789BF5-0E1F-418F-8373-0695E73B4161}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12504" xr2:uid="{47789BF5-0E1F-418F-8373-0695E73B4161}"/>
   </bookViews>
   <sheets>
     <sheet name="C1300-8T-E-2G" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Bộ nhớ DRAM</t>
   </si>
   <si>
-    <t>Memory</t>
-  </si>
-  <si>
     <t>Giao diện kết nối</t>
   </si>
   <si>
@@ -105,15 +102,6 @@
     <t>ARM dual-core at 1.4 GHz</t>
   </si>
   <si>
-    <t>Secure Shell (SSH) Protocol,Secure Sockets Layer (SSL),IEEE 802.1X,BPDU,STP Root Guard,DHCP snooping,IPSG,DAI,IPMB,SCT,SSD,Private VLAN,Port Security,RADIUS/TACACS+,DoS prevention,ACLs</t>
-  </si>
-  <si>
-    <t>Spanning Tree Protocol,Port grouping/link aggregation,VLAN,Q-in-Q,GVRP,GARP,UDLD,DHCP Relay,IGMP,HOL,Loopback detection</t>
-  </si>
-  <si>
-    <t>IPv4 routing,IPv6 routing,Layer 3 interface,CIDR,RIP v2,PBR,DHCP Server,DHCP Relay,UDP Relay</t>
-  </si>
-  <si>
     <t>100-240V 50-60 Hz</t>
   </si>
   <si>
@@ -129,10 +117,6 @@
     <t>Khả năng chuyển gói Forwarding rate(64-byte packets)</t>
   </si>
   <si>
-    <t xml:space="preserve">8 x Gigabit Ethernet
-2 x Gigabit Ethernet Combo ports (RJ-45 + Small Form-Factor Pluggable [SFP]) </t>
-  </si>
-  <si>
     <t>268 x 185 x 44 mm</t>
   </si>
   <si>
@@ -152,6 +136,22 @@
   </si>
   <si>
     <t>Kích thước frame lên đến 9000 byte. MTU mặc định là 2000 byte</t>
+  </si>
+  <si>
+    <t>Spanning Tree Protocol, Port grouping/link aggregation, VLAN, Voice VLAN, Multicast TV VLAN, VLAN translation, UDLD, DHCP relay at Layer 2, IGMP, HOL…</t>
+  </si>
+  <si>
+    <t>IPv4 routing, IPv6 routing, Layer 3 interface, CIDR, RIPv2, PBR, DHCP server, DHCP relay at Layer 3, UDP…</t>
+  </si>
+  <si>
+    <t>SSH, SSL, IEEE 802.1X, Web-based authentication, BPDU, STP Root Guard, STP loopback guard, DHCP snooping, IPSG, DAI, IPMB, SCT, SSD, Private VLAN, PVE, Port security, RADIUS/TACACS+, ACLs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 x 10/100/1000 ports
+2 x Gigabit copper/SFP combo ports </t>
+  </si>
+  <si>
+    <t>Flash</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B73E3E-A3BB-4615-9B13-2F589783187D}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -600,26 +600,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -628,140 +628,140 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:3" ht="69" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="110.4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
